--- a/regCOVID/intervention_map2.xlsx
+++ b/regCOVID/intervention_map2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmaye\OneDrive\Documents\finaloutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476FD9E9-EB63-480E-8538-5151CB51FBF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA797818-FD5F-48FE-B115-DFA4C88555B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="1632" windowWidth="23256" windowHeight="10836" xr2:uid="{41C59FB7-8552-452C-B2D0-F3F12491B872}"/>
+    <workbookView xWindow="-108" yWindow="1776" windowWidth="23256" windowHeight="10692" xr2:uid="{41C59FB7-8552-452C-B2D0-F3F12491B872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$2420</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4552" uniqueCount="2443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4838" uniqueCount="2582">
   <si>
     <t>intervention</t>
   </si>
@@ -7365,6 +7365,423 @@
   </si>
   <si>
     <t>biospeciman collection</t>
+  </si>
+  <si>
+    <t>soc</t>
+  </si>
+  <si>
+    <t>tele-yoga therapy</t>
+  </si>
+  <si>
+    <t>favipiravir placebo</t>
+  </si>
+  <si>
+    <t>throat swab</t>
+  </si>
+  <si>
+    <t>counselling contacts</t>
+  </si>
+  <si>
+    <t>e-psychotherapy</t>
+  </si>
+  <si>
+    <t>educational meetings</t>
+  </si>
+  <si>
+    <t>ehealth</t>
+  </si>
+  <si>
+    <t>ehealth /counselling contacts</t>
+  </si>
+  <si>
+    <t>emotional support plan</t>
+  </si>
+  <si>
+    <t>gamification</t>
+  </si>
+  <si>
+    <t>high intensity interval training group</t>
+  </si>
+  <si>
+    <t>informational videos</t>
+  </si>
+  <si>
+    <t>lock-down</t>
+  </si>
+  <si>
+    <t>mindfulness program</t>
+  </si>
+  <si>
+    <t>minnrap peer support program</t>
+  </si>
+  <si>
+    <t>negative covid test result - hypothetical scenario</t>
+  </si>
+  <si>
+    <t>newsfeed function</t>
+  </si>
+  <si>
+    <t>nudge</t>
+  </si>
+  <si>
+    <t>opt-in recruitment email</t>
+  </si>
+  <si>
+    <t>opt-out recruitment email</t>
+  </si>
+  <si>
+    <t>positive covid test result - hypothetical scenario</t>
+  </si>
+  <si>
+    <t>positive feedback</t>
+  </si>
+  <si>
+    <t>reading a book</t>
+  </si>
+  <si>
+    <t>social distancing</t>
+  </si>
+  <si>
+    <t>chadox1 ncov-19 0.5ml prime</t>
+  </si>
+  <si>
+    <t>chadox1 ncov-19 0.5ml prime/boost</t>
+  </si>
+  <si>
+    <t>ck0802</t>
+  </si>
+  <si>
+    <t>clbs119</t>
+  </si>
+  <si>
+    <t>collection of blood samples in order to create a biocollection</t>
+  </si>
+  <si>
+    <t>coronavac</t>
+  </si>
+  <si>
+    <t>covid-19 convalescent plasma (ccp)/standard of care (soc)</t>
+  </si>
+  <si>
+    <t>cvncov (dose level confirmed in part 1)</t>
+  </si>
+  <si>
+    <t>cvncov 6 Ã®Â¼g</t>
+  </si>
+  <si>
+    <t>cvncov 8 Ã®Â¼g</t>
+  </si>
+  <si>
+    <t>cvncov 8 Ã®Â¼g (4 Ã®Â¼g double dose)</t>
+  </si>
+  <si>
+    <t>gamunex-c</t>
+  </si>
+  <si>
+    <t>high-titer convalescent covid-19 plasma (ccp1)</t>
+  </si>
+  <si>
+    <t>human cord tissue mesenchymal stromal cells</t>
+  </si>
+  <si>
+    <t>intravenous immune globulin</t>
+  </si>
+  <si>
+    <t>mesenchymal stem cell</t>
+  </si>
+  <si>
+    <t>risankizumab</t>
+  </si>
+  <si>
+    <t>saline containing 1% human serum albuminÃ¯Â¼Ë†solution without uc-mscsÃ¯Â¼â€°</t>
+  </si>
+  <si>
+    <t>standard-titer convalescent covid-19 plasma (ccp2)</t>
+  </si>
+  <si>
+    <t>standard of care (soc)/placebo</t>
+  </si>
+  <si>
+    <t>trv027</t>
+  </si>
+  <si>
+    <t>umbilical cord mesenchymal stem cells / heparin along with best supportive care.</t>
+  </si>
+  <si>
+    <t>combination of oral polio vaccine/na-831</t>
+  </si>
+  <si>
+    <t>ivermectin oral drops (used as buccal drops)</t>
+  </si>
+  <si>
+    <t>quinquina-stevia</t>
+  </si>
+  <si>
+    <t>quinquina-stevia/azythromycin</t>
+  </si>
+  <si>
+    <t>core warming</t>
+  </si>
+  <si>
+    <t>digital oximeter monitoring</t>
+  </si>
+  <si>
+    <t>direct laryngoscope</t>
+  </si>
+  <si>
+    <t>high flow nasal cannula device</t>
+  </si>
+  <si>
+    <t>high flow nasal cannula hfnc</t>
+  </si>
+  <si>
+    <t>chest ct scan</t>
+  </si>
+  <si>
+    <t>electrolytes</t>
+  </si>
+  <si>
+    <t>feces samples (covi-biome ancillary study)</t>
+  </si>
+  <si>
+    <t>fenofibrate</t>
+  </si>
+  <si>
+    <t>ivermectin 5 mg/ml oral solution, dexamethasone 4-mg injection, aspirin 250 mg tablets</t>
+  </si>
+  <si>
+    <t>ivermectin 5 mg/ml oral solution, dexamethasone 4-mg injection, enoxaparin injection. inpatient treatment with mechanical ventilation in icu.</t>
+  </si>
+  <si>
+    <t>lopinavir/ ritonavir placebo</t>
+  </si>
+  <si>
+    <t>mindfulness based intervention</t>
+  </si>
+  <si>
+    <t>nacl solution</t>
+  </si>
+  <si>
+    <t>nil intervention</t>
+  </si>
+  <si>
+    <t>no intervention - quality of life measure</t>
+  </si>
+  <si>
+    <t>no intervention / compare the difference in respiratory rate between h0/h12 of the initiation of morphine between the control/interventional groups</t>
+  </si>
+  <si>
+    <t>no intervention / evaluation of the ferritin/glycosylated ferritin by standard approved serological tests</t>
+  </si>
+  <si>
+    <t>no intervention on patients</t>
+  </si>
+  <si>
+    <t>no intervention, observational</t>
+  </si>
+  <si>
+    <t>no intervention, this is an observational study that uses validated questionnaires</t>
+  </si>
+  <si>
+    <t>no intervention, this is an observational study that uses validated questionnaires/qualitative interviews..</t>
+  </si>
+  <si>
+    <t>no intervention. observational cohort study</t>
+  </si>
+  <si>
+    <t>no interventions</t>
+  </si>
+  <si>
+    <t>no interverntion</t>
+  </si>
+  <si>
+    <t>or ace inhibitors</t>
+  </si>
+  <si>
+    <t>questionaire</t>
+  </si>
+  <si>
+    <t>rapid serological test</t>
+  </si>
+  <si>
+    <t>sham irradiation</t>
+  </si>
+  <si>
+    <t>sodium chloride 0.9%</t>
+  </si>
+  <si>
+    <t>standard of care (paracetamol)</t>
+  </si>
+  <si>
+    <t>standard plasma (sp)</t>
+  </si>
+  <si>
+    <t>standard treatment for covid-19</t>
+  </si>
+  <si>
+    <t>supine position</t>
+  </si>
+  <si>
+    <t>telemedicine to remote outpatient visit in bariatric patient</t>
+  </si>
+  <si>
+    <t>attention placebo</t>
+  </si>
+  <si>
+    <t>cellulose-containing placebo capsules</t>
+  </si>
+  <si>
+    <t>comparable placebo</t>
+  </si>
+  <si>
+    <t>comparable placebo of drug</t>
+  </si>
+  <si>
+    <t>comparable placebo of oral polio vaccine</t>
+  </si>
+  <si>
+    <t>normal saline solution (nss), placebo - phase 1</t>
+  </si>
+  <si>
+    <t>normal saline solution (nss), placebo - phase 2</t>
+  </si>
+  <si>
+    <t>normal saline solution (nss), placebo, day 189 - phase 2</t>
+  </si>
+  <si>
+    <t>normal saline solution (nss), placebo, day 21 - phase 1</t>
+  </si>
+  <si>
+    <t>normal saline solution (nss), placebo, day 21 - phase 2</t>
+  </si>
+  <si>
+    <t>placebo - starch powder soft gels</t>
+  </si>
+  <si>
+    <t>placebo (0.9% normal saline)</t>
+  </si>
+  <si>
+    <t>placebo (human albumin 1%)</t>
+  </si>
+  <si>
+    <t>placebo (pb0)</t>
+  </si>
+  <si>
+    <t>placebo (sodium chloride bufus, solvent for the preparation of dosage forms for injection 0.9%)</t>
+  </si>
+  <si>
+    <t>placebo comparator: dw-ni</t>
+  </si>
+  <si>
+    <t>placebo comparator: dw-ns</t>
+  </si>
+  <si>
+    <t>placebo intravenous</t>
+  </si>
+  <si>
+    <t>placebo mouthwash (water)</t>
+  </si>
+  <si>
+    <t>placebo nebuliser solution</t>
+  </si>
+  <si>
+    <t>placebo of drug</t>
+  </si>
+  <si>
+    <t>placebo pmdi</t>
+  </si>
+  <si>
+    <t>placebo rinse</t>
+  </si>
+  <si>
+    <t>placebo subcutaneous solution</t>
+  </si>
+  <si>
+    <t>placebo to match rdv</t>
+  </si>
+  <si>
+    <t>resveratrol placebo</t>
+  </si>
+  <si>
+    <t>ritonavir placebo</t>
+  </si>
+  <si>
+    <t>vaccine: recombinant new coronavirus vaccine (cho cells) placebo group</t>
+  </si>
+  <si>
+    <t>zinc picolinate placebo</t>
+  </si>
+  <si>
+    <t>blood collection via fingerprick</t>
+  </si>
+  <si>
+    <t>blood sample for seroepidemiological investigation</t>
+  </si>
+  <si>
+    <t>placenta-derived mmscs; cryopreserved placenta-derived multipotent mesenchymal stromal cells</t>
+  </si>
+  <si>
+    <t>low dose radiation 35 cgy</t>
+  </si>
+  <si>
+    <t>low dose radiation therapy (ld-rt)</t>
+  </si>
+  <si>
+    <t>non-enhanced ct scan of the chest</t>
+  </si>
+  <si>
+    <t>tele-yoga</t>
+  </si>
+  <si>
+    <t>counselling</t>
+  </si>
+  <si>
+    <t>psychotherapy</t>
+  </si>
+  <si>
+    <t>telehealth/counselling</t>
+  </si>
+  <si>
+    <t>high intensity interval training</t>
+  </si>
+  <si>
+    <t>peer support</t>
+  </si>
+  <si>
+    <t>convalescent plasma/standard care</t>
+  </si>
+  <si>
+    <t>cvncov</t>
+  </si>
+  <si>
+    <t>immune globulin</t>
+  </si>
+  <si>
+    <t>standard care/placebo</t>
+  </si>
+  <si>
+    <t>mesenchymalÂ stem cells/heparin</t>
+  </si>
+  <si>
+    <t>polio vaccine/na-831</t>
+  </si>
+  <si>
+    <t>laryngoscope</t>
+  </si>
+  <si>
+    <t>high flow nasal cannula</t>
+  </si>
+  <si>
+    <t>igm antibody test</t>
+  </si>
+  <si>
+    <t>ivermectin/deamethisone/aspirin</t>
+  </si>
+  <si>
+    <t>ivermectin/deamethisone/exoparin</t>
+  </si>
+  <si>
+    <t>fecal sample</t>
   </si>
 </sst>
 </file>
@@ -7744,10 +8161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D78BD7-B874-4569-A7D3-79B294B67B22}">
-  <dimension ref="A1:F2277"/>
+  <dimension ref="A1:F2420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19 B28 B37 B50 B70 B74:B75 B80 B148 B204 B217:B219 B246 B264 B279 B281 B294:B296 B318 B383 B402 B435 B440 B447 B453:B454 B456 B467 B512 B516 B545 B559 B590 B609 B678:B679 B697 B711:B713 B716:B717 B756 B759 B798:B799 B804 B821 B828 B843:B845 B866 B869 B888 B990 B1049 B1053:B1055 B1060 B1112 B1128 B1163 B1168:B1170 B1227 B1264:B1265 B1297:B1298 B1351 B1412 B1435 B1438 B1450:B1451 B1466 B1501 B1592:B1594 B1616 B1619:B1620 B1646 B1659 B1694:B1695 B1702:B1703 B1710:B1711 B1718:B1719 B1724:B1726 B1772 B1800 B1818 B1821:B1825 B1839 B1847 B1879 B1884 B1899 B1901:B1903 B1915 B1974 B2054:B2055 B2117:B2120 B2126 B2136:B2137 B2142:B2143 B2146 B2151 B2158 B2161 B2165 B2176 B2179:B2180 B2199 B2246 B2258 B2260:B2261 B2264:B2266 B2269:B2282 B2284:B2286 B2288:B2289 B2291:B2317 B2319:B2322 B2324:B2341 B2343:B2344 B2347:B2349 B2352:B2353 B2355:B2356 B2359:B2364 B2368:B2372 B2374:B2379 B2381:B2387 B2390:B2396 B2399:B2401 B2404:B2418 B2423:B2432 B2434:B2444 B2447 B2449:B2452 B2459 B2464:B2472 B2475 B2477:B2494 B2496:B2497 B2499:B2501 B2504:B2506 B2515 B2537 B2541 B2543 B2545 B2548 B2551:B2554 B2556:B2557 B2559:B2562 B2564:B2565 B2567:B2569 B2573 B2575 B2578:B2579 B2583 B2585:B2587 B2592:B2593 B2598:B2602 B2606:B2609 B2611:B2613 B2616 B2621:B2624 B2628:B2633 B2637:B2639 B2641 B2644:B2646 B2654:B2655 B2658 B2664:B2667 B2669:B2670 B2675:B2689 B2691:B2693 B2695:B2702 B2704:B2732 B2735:B2762 B2765:B2834 B2836:B3041"/>
+    <sheetView tabSelected="1" topLeftCell="A2271" workbookViewId="0">
+      <selection activeCell="B2280" sqref="B2280:B2308 B2310:B2316 B2320:B2339 B2341:B2349 B2353 B2358:B2361 B2363:B2365 B2368:B2375 B2377:B2381 B2384 B2387 B2390 B2392 B2395:B2397 B2400:B2403 B2405:B2416 B2418:B2453 B2460 B2462 B2464 B2469:B2472 B2474:B2478 B2481 B2483 B2485:B2488 B2491:B2495 B2497:B2502 B2505 B2507:B2515 B2519:B2521 B2523:B2528 B2530:B2533 B2536:B2539 B2543 B2547:B2566 B2568:B2569 B2572:B2583 B2586 B2589:B3098 B3100:B3165 B3167:B3184 B3187:B3222 B3225:B3228 B3230:B3244 B3246:B3255 B3258:B3264 B3276:B3292 B3294:B3336 B3338:B3342 B3344:B3366 B3368:B3370 B3373:B3377 B3381:B3385 B3387:B3392 B3394:B3399 B3401:B3423 B3453:B3458 B3461:B3484 B3486:B3493 B3497:B3498 B3500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19985,7 +20402,7 @@
         <v>1809</v>
       </c>
       <c r="B1529" t="s">
-        <v>1866</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.3">
@@ -25969,7 +26386,1151 @@
         <v>1452</v>
       </c>
       <c r="B2277" t="s">
-        <v>1452</v>
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2278" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2279" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2280" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2281" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2282" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2283" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2284" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2285" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2286" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2287" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2288" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2289" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2290" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2291" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2292" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2293" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2294" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2295" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2296" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2297" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2298" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2299" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2300" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2301" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2302" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2303" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2304" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2305" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2306" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2307" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2308" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2309" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2310" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2311" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2312" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2313" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2314" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B2314" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2315" t="s">
+        <v>2473</v>
+      </c>
+      <c r="B2315" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2316" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B2316" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2317" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B2317" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2318" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B2318" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2319" t="s">
+        <v>2477</v>
+      </c>
+      <c r="B2319" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2320" t="s">
+        <v>2478</v>
+      </c>
+      <c r="B2320" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2321" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B2321" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2322" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B2322" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2323" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B2323" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2324" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B2324" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2325" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B2325" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2326" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B2326" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2327" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B2327" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2328" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B2328" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2329" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B2329" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2330" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B2330" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2331" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B2331" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2332" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B2332" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2333" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B2333" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2334" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B2334" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2335" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B2335" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2336" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B2336" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2337" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2338" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B2338" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2339" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B2339" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2340" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B2340" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2341" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B2341" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2342" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B2342" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2343" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B2343" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2344" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B2344" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2345" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B2345" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2346" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B2346" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2347" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B2347" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2348" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B2348" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2349" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B2349" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2350" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2351" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B2351" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2352" t="s">
+        <v>2499</v>
+      </c>
+      <c r="B2352" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2353" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B2353" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2354" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B2354" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2355" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B2355" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2356" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B2356" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2357" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B2357" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2358" t="s">
+        <v>2505</v>
+      </c>
+      <c r="B2358" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2359" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B2359" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2360" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B2360" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2361" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B2361" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2362" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B2362" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2363" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B2363" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2364" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B2364" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2365" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B2365" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2366" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2367" t="s">
+        <v>2513</v>
+      </c>
+      <c r="B2367" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2368" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2369" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2370" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2371" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B2371" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2372" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2373" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2374" t="s">
+        <v>2520</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2375" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2376" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2377" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2378" t="s">
+        <v>2523</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2379" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2380" t="s">
+        <v>2525</v>
+      </c>
+      <c r="B2380" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2381" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B2381" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2382" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2383" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B2383" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2384" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B2384" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2385" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B2385" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2386" t="s">
+        <v>2530</v>
+      </c>
+      <c r="B2386" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2387" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B2387" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2388" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2389" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2390" t="s">
+        <v>2534</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2391" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2392" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2393" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2394" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2395" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2396" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2397" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2398" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2399" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2400" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2401" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2402" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2403" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2404" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2405" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2406" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2407" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2408" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2409" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2410" t="s">
+        <v>2554</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2411" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2412" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2413" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2414" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2415" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2416" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2417" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2418" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2419" t="s">
+        <v>2563</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2420" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>1507</v>
       </c>
     </row>
   </sheetData>
